--- a/BackTest/2019-10-27 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-27 BackTest QTUM.xlsx
@@ -451,17 +451,13 @@
         <v>2048.666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>2048.666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>2051.333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>2050.666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2047</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>2052.666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2058</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>2057</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2069</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>2064.333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2068</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>2063.666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2058</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>2060</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2058</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>2051</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2044</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>2049</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2046</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>2045</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2046</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>2046</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>2045.333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>2042.333333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2037</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>2040</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2038</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>2037.666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2038</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>2038</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2038</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>2040</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2044</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>2043</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2046</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>2042.666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1186,14 @@
         <v>2042</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>2042</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1393,22 +1221,14 @@
         <v>2037.666666666667</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,22 +1256,14 @@
         <v>2036.333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>2033</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,22 +1291,14 @@
         <v>2036</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>2033</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1522,22 +1326,14 @@
         <v>2041.333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1565,22 +1361,14 @@
         <v>2046</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>2047</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1608,22 +1396,14 @@
         <v>2047.666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>2047</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1651,22 +1431,14 @@
         <v>2046.666666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>2037</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1694,22 +1466,14 @@
         <v>2054.666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>2047</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1501,14 @@
         <v>2063</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>2071</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1536,14 @@
         <v>2072.333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>2073</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1823,22 +1571,14 @@
         <v>2074.666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>2078</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1606,14 @@
         <v>2077.666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>2080</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1641,14 @@
         <v>2078.666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>2078</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1676,14 @@
         <v>2081</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>2084</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1995,22 +1711,14 @@
         <v>2083.333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>2085</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +1746,14 @@
         <v>2090</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>2094</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2081,22 +1781,14 @@
         <v>2096</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>2098</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2130,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2171,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2212,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2253,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2294,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2335,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2417,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2458,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2540,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2581,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2622,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2745,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2827,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2868,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3032,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3114,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3155,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3196,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3565,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3606,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3647,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3688,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3729,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3811,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3928,22 +3356,14 @@
         <v>2061.333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>2064</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2049</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3977,14 +3397,12 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2054</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2049</v>
-      </c>
+        <v>2056</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -4020,11 +3438,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2054</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2049</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,11 +3479,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2058</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2049</v>
-      </c>
+        <v>2054</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,11 +3520,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2058</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2049</v>
-      </c>
+        <v>2063</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4149,11 +3561,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2060</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2049</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +3604,7 @@
       <c r="J91" t="n">
         <v>2060</v>
       </c>
-      <c r="K91" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,11 +3643,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2060</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2049</v>
-      </c>
+        <v>2059</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +3686,7 @@
       <c r="J93" t="n">
         <v>2061</v>
       </c>
-      <c r="K93" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,9 +3727,7 @@
       <c r="J94" t="n">
         <v>2066</v>
       </c>
-      <c r="K94" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,17 +3760,13 @@
         <v>2064.333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4401,17 +3799,13 @@
         <v>2064</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,17 +3838,13 @@
         <v>2063.333333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,17 +3877,13 @@
         <v>2062.666666666667</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>2059</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,17 +3916,13 @@
         <v>2062.666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,17 +3955,13 @@
         <v>2062</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,17 +3994,13 @@
         <v>2070</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>2078</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,17 +4033,13 @@
         <v>2074.666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>2079</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,17 +4072,13 @@
         <v>2080.333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>2079</v>
-      </c>
-      <c r="K103" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,17 +4111,13 @@
         <v>2078.666666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>2078</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,9 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4835,9 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4876,9 +4234,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,9 +4273,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,9 +4312,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5040,9 +4390,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,9 +4429,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,9 +4507,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,9 +4546,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,9 +4585,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,9 +4624,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,9 +4663,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,9 +4702,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,9 +4741,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,9 +4780,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,9 +4819,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,9 +4858,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,9 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,9 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,9 +4975,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,9 +5014,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,9 +5053,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,9 +5092,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,9 +5131,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,9 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,9 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5942,9 +5248,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,9 +5287,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,9 +5326,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,17 +5359,13 @@
         <v>2073.666666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>2074</v>
-      </c>
-      <c r="K136" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,17 +5398,13 @@
         <v>2074</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>2071</v>
-      </c>
-      <c r="K137" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6151,9 +5443,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6192,9 +5482,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,17 +5515,13 @@
         <v>2067</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>2065</v>
-      </c>
-      <c r="K140" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,17 +5554,13 @@
         <v>2066.333333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K141" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6313,17 +5593,13 @@
         <v>2065.666666666667</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,17 +5632,13 @@
         <v>2068.333333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>2075</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,17 +5671,13 @@
         <v>2073.666666666667</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>2077</v>
-      </c>
-      <c r="K144" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,17 +5710,13 @@
         <v>2079</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>2082</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6485,17 +5749,13 @@
         <v>2082.666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>2078</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2049</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,9 +5794,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6575,9 +5833,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6616,9 +5872,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6657,9 +5911,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6698,9 +5950,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6739,9 +5989,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6780,9 +6028,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6821,9 +6067,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6862,9 +6106,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,9 +6145,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,9 +6184,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6985,9 +6223,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7026,9 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,9 +6301,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,9 +6340,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7149,9 +6379,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7190,9 +6418,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,9 +6457,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7272,9 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7313,9 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,9 +6574,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,9 +6613,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,9 +6652,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7477,9 +6691,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7518,9 +6730,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7559,9 +6769,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,9 +6808,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +6847,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7723,9 +6925,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,9 +6964,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,9 +7003,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,9 +7042,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7887,9 +7081,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7928,9 +7120,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,9 +7159,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8010,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,9 +7237,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,9 +7276,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,9 +7315,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,9 +7354,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,9 +7393,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8256,9 +7432,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8297,9 +7471,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8338,9 +7510,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,9 +7549,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8420,9 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8461,9 +7627,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8502,9 +7666,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +7705,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8584,9 +7744,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,9 +7783,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8666,9 +7822,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,9 +7861,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8748,9 +7900,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,9 +7939,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,9 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,9 +8017,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,9 +8056,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8953,9 +8095,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,9 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9035,9 +8173,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9076,9 +8212,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,9 +8251,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9158,9 +8290,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9199,9 +8329,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9240,9 +8368,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9281,9 +8407,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,9 +8446,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,9 +8485,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,9 +8524,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,9 +8563,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,9 +8602,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9527,9 +8641,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9568,9 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9609,9 +8719,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9650,9 +8758,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9691,9 +8797,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,9 +8836,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,9 +8875,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,9 +8914,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9855,9 +8953,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9896,9 +8992,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,9 +9031,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9978,9 +9070,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10019,9 +9109,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,9 +9148,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10101,9 +9187,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +9226,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10183,9 +9265,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,9 +9304,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10265,9 +9343,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10306,9 +9382,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10347,9 +9421,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,9 +9460,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,9 +9499,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,9 +9538,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10511,9 +9577,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10552,9 +9616,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10593,9 +9655,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,9 +9694,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,9 +9733,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,9 +9772,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10757,9 +9811,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10798,9 +9850,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10839,9 +9889,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10880,9 +9928,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10921,9 +9967,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10962,9 +10006,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11003,9 +10045,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +10084,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11085,9 +10123,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11126,9 +10162,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11167,9 +10201,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11208,9 +10240,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11249,9 +10279,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11290,9 +10318,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11331,9 +10357,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11372,9 +10396,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,9 +10435,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11454,9 +10474,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11495,9 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11536,9 +10552,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,9 +10591,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,9 +10630,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11659,9 +10669,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11700,9 +10708,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11741,9 +10747,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11782,9 +10786,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11823,9 +10825,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11864,9 +10864,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11905,9 +10903,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,9 +10942,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,9 +10981,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12028,9 +11020,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12069,9 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12110,9 +11098,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12151,9 +11137,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12192,9 +11176,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12233,9 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12274,9 +11254,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12315,9 +11293,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12356,9 +11332,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12397,9 +11371,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12438,9 +11410,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12479,9 +11449,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12520,9 +11488,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12561,9 +11527,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12602,9 +11566,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,9 +11605,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12684,9 +11644,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12725,9 +11683,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12766,9 +11722,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12807,9 +11761,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12848,9 +11800,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,9 +11839,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12930,9 +11878,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12971,9 +11917,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13012,9 +11956,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13053,9 +11995,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,9 +12034,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13135,9 +12073,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13176,9 +12112,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13217,9 +12151,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13258,9 +12190,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13299,9 +12229,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13340,9 +12268,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13381,9 +12307,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13422,9 +12346,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,9 +12385,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13504,9 +12424,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13545,9 +12463,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13586,9 +12502,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,9 +12541,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,9 +12580,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13709,9 +12619,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13750,9 +12658,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13791,9 +12697,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13832,9 +12736,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13873,9 +12775,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,9 +12814,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13955,9 +12853,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13996,9 +12892,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,9 +12931,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14078,9 +12970,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14119,9 +13009,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14160,9 +13048,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14201,9 +13087,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,9 +13126,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14283,9 +13165,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14324,9 +13204,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14365,9 +13243,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,9 +13282,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14447,9 +13321,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14488,9 +13360,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14529,9 +13399,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,9 +13438,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14611,9 +13477,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14652,9 +13516,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14693,9 +13555,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14734,9 +13594,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14775,9 +13633,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14816,9 +13672,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,9 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14898,9 +13750,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14939,9 +13789,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14980,9 +13828,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15021,9 +13867,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15062,9 +13906,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15103,9 +13945,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,9 +13984,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15185,9 +14023,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15226,9 +14062,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,9 +14101,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,9 +14140,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15349,9 +14179,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15390,9 +14218,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15431,9 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15472,9 +14296,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15513,9 +14335,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,9 +14374,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15595,9 +14413,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,9 +14452,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15677,9 +14491,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15718,9 +14530,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15759,9 +14569,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15800,9 +14608,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +14647,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15882,9 +14686,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,9 +14725,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,9 +14764,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16005,9 +14803,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16046,9 +14842,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16087,9 +14881,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16128,9 +14920,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16169,9 +14959,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16210,9 +14998,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16251,9 +15037,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16292,9 +15076,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16333,9 +15115,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16374,9 +15154,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16415,9 +15193,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16456,9 +15232,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16497,9 +15271,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16538,9 +15310,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16579,9 +15349,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16620,9 +15388,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16661,9 +15427,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16702,9 +15466,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16743,9 +15505,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,9 +15544,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16825,9 +15583,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16866,9 +15622,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16907,9 +15661,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16948,9 +15700,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16989,9 +15739,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17030,9 +15778,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17071,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17112,9 +15856,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17153,9 +15895,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17194,9 +15934,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,9 +15973,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17276,9 +16012,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17317,9 +16051,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17358,9 +16090,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17399,9 +16129,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17440,9 +16168,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17481,9 +16207,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17522,9 +16246,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17563,9 +16285,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17604,9 +16324,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17645,9 +16363,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17686,9 +16402,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17727,9 +16441,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17768,9 +16480,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17809,9 +16519,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17850,9 +16558,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17891,9 +16597,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17932,9 +16636,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17973,9 +16675,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18014,9 +16714,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18055,9 +16753,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18096,9 +16792,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18137,9 +16831,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18178,9 +16870,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18219,9 +16909,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18260,9 +16948,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18301,9 +16987,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,9 +17026,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,9 +17065,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18424,9 +17104,7 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18465,9 +17143,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18506,9 +17182,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18547,9 +17221,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18588,9 +17260,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18629,9 +17299,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18670,9 +17338,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18711,9 +17377,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18752,9 +17416,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18793,9 +17455,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18834,9 +17494,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18875,9 +17533,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18916,9 +17572,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18957,9 +17611,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18998,9 +17650,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +17689,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19080,9 +17728,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19121,9 +17767,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19162,9 +17806,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19203,9 +17845,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19244,9 +17884,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19285,9 +17923,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19326,9 +17962,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19367,9 +18001,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19408,9 +18040,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19449,9 +18079,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19490,9 +18118,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19531,9 +18157,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19572,9 +18196,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19613,9 +18235,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19654,9 +18274,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19695,9 +18313,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19736,9 +18352,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19777,9 +18391,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19818,9 +18430,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,9 +18469,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19900,9 +18508,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19941,9 +18547,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19982,9 +18586,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20023,9 +18625,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,9 +18664,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20105,9 +18703,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20146,9 +18742,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20187,9 +18781,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20228,9 +18820,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20269,9 +18859,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20310,9 +18898,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20351,9 +18937,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20392,9 +18976,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20433,9 +19015,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20474,9 +19054,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20515,9 +19093,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20556,9 +19132,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20597,9 +19171,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +19210,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20679,9 +19249,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20720,9 +19288,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20761,9 +19327,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20802,9 +19366,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20843,9 +19405,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20884,9 +19444,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20925,9 +19483,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20966,9 +19522,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21007,9 +19561,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21048,9 +19600,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21089,9 +19639,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21130,9 +19678,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21171,9 +19717,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21212,9 +19756,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21253,9 +19795,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,9 +19834,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21335,9 +19873,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21376,9 +19912,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21417,9 +19951,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21458,9 +19990,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21499,9 +20029,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21540,9 +20068,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21581,9 +20107,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21622,9 +20146,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21663,9 +20185,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21704,9 +20224,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21742,19 +20260,17 @@
         <v>0</v>
       </c>
       <c r="I518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>2049</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>1.098953147877013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -21787,7 +20303,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -21822,7 +20342,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -21857,7 +20381,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -21892,7 +20420,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -21927,7 +20459,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -21962,7 +20498,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -21997,7 +20537,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -22032,7 +20576,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -22067,7 +20615,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -22102,7 +20654,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -22137,7 +20693,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -22172,7 +20732,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +20771,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -22242,7 +20810,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -22273,14 +20845,16 @@
         <v>0</v>
       </c>
       <c r="I533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
-      <c r="M533" t="n">
-        <v>1</v>
-      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">

--- a/BackTest/2019-10-27 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-27 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4722.402440899999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-4736.690440899999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2066</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-4660.462540899999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2058</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-4318.063640899999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2064</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-4124.611640899999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2065</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-3774.133740899999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2068</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-3721.796740899999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2071</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>-3873.822740899999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2072</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -770,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -809,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +781,11 @@
         <v>-3884.180740899998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2074</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +814,11 @@
         <v>-3232.264740899998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +847,11 @@
         <v>-3075.333940899998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2064</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +880,11 @@
         <v>-2922.333940899998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2074</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1009,19 +913,11 @@
         <v>-1546.892240899998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2083</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,19 +946,11 @@
         <v>273.6715591000018</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2093</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1094,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1133,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1172,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1367,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1406,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1445,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1601,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1640,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1679,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1718,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1757,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1796,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1835,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1910,19 +1672,11 @@
         <v>-1204.861040899998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2067</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1951,19 +1705,11 @@
         <v>-1776.584640899998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2063</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1992,19 +1738,11 @@
         <v>-1153.273440899998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2060</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2033,19 +1771,11 @@
         <v>-968.6622408999981</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2063</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2074,19 +1804,11 @@
         <v>-974.433740899998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2067</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2115,19 +1837,11 @@
         <v>-1174.847440899998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2062</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2156,19 +1870,11 @@
         <v>-1072.447440899998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2197,19 +1903,11 @@
         <v>-1100.405440899998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2059</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2238,19 +1936,11 @@
         <v>-3059.692040899998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2054</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2279,19 +1969,11 @@
         <v>-3153.333540899998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2320,19 +2002,11 @@
         <v>-3153.333540899998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2361,19 +2035,11 @@
         <v>-3167.312540899998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2050</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2402,19 +2068,11 @@
         <v>-2947.372140899998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2045</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2443,19 +2101,11 @@
         <v>-3345.009340899998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2048</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2484,19 +2134,11 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2039</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2525,19 +2167,11 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2035</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2566,19 +2200,11 @@
         <v>-3026.824540899998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2035</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2607,19 +2233,11 @@
         <v>-3471.421540899998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2044</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2648,19 +2266,15 @@
         <v>-3386.447140899998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>2041</v>
       </c>
       <c r="J57" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2041</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2689,17 +2303,17 @@
         <v>-3359.880840899998</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>2048</v>
       </c>
       <c r="J58" t="n">
-        <v>2066</v>
+        <v>2041</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2730,17 +2344,17 @@
         <v>-3359.880840899998</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>2049</v>
       </c>
       <c r="J59" t="n">
-        <v>2066</v>
+        <v>2041</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2771,19 +2385,15 @@
         <v>-3382.680840899998</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>2049</v>
       </c>
       <c r="J60" t="n">
-        <v>2066</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2049</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2812,17 +2422,17 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>2048</v>
       </c>
       <c r="J61" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2853,17 +2463,17 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>2049</v>
       </c>
       <c r="J62" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2894,17 +2504,17 @@
         <v>-2188.548340899998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>2049</v>
       </c>
       <c r="J63" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2935,13 +2545,13 @@
         <v>-3298.659640899998</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>2056</v>
       </c>
       <c r="J64" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2976,13 +2586,13 @@
         <v>-1579.659640899998</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>2047</v>
       </c>
       <c r="J65" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3017,11 +2627,13 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2055</v>
+      </c>
       <c r="J66" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3056,11 +2668,13 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2069</v>
+      </c>
       <c r="J67" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3099,7 +2713,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3138,7 +2752,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3173,11 +2787,13 @@
         <v>-2880.627940899998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2058</v>
+      </c>
       <c r="J70" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3212,13 +2828,13 @@
         <v>-1755.401540899998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>2042</v>
       </c>
       <c r="J71" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3253,13 +2869,11 @@
         <v>-1775.905540899998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3294,13 +2908,13 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>2046</v>
       </c>
       <c r="J73" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3335,13 +2949,13 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2045</v>
       </c>
       <c r="J74" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3376,13 +2990,13 @@
         <v>-2100.713140899998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>2045</v>
       </c>
       <c r="J75" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3417,13 +3031,13 @@
         <v>-1916.959640899998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>2037</v>
       </c>
       <c r="J76" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3458,13 +3072,13 @@
         <v>-1916.959640899998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>2038</v>
       </c>
       <c r="J77" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3499,13 +3113,13 @@
         <v>-1916.959640899998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>2038</v>
       </c>
       <c r="J78" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3540,13 +3154,13 @@
         <v>-1752.862040899998</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>2038</v>
       </c>
       <c r="J79" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3581,11 +3195,13 @@
         <v>-1472.566240899998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2044</v>
+      </c>
       <c r="J80" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3620,11 +3236,13 @@
         <v>-5639.822440899998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2047</v>
+      </c>
       <c r="J81" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3659,13 +3277,13 @@
         <v>-5609.042640899997</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>2037</v>
       </c>
       <c r="J82" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3700,13 +3318,13 @@
         <v>-6214.342640899998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>2042</v>
       </c>
       <c r="J83" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3741,13 +3359,13 @@
         <v>-6732.499740899998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>2034</v>
       </c>
       <c r="J84" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3782,13 +3400,13 @@
         <v>-5584.514140899998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>2033</v>
       </c>
       <c r="J85" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3823,13 +3441,13 @@
         <v>-5334.514140899998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>2041</v>
       </c>
       <c r="J86" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3864,13 +3482,13 @@
         <v>-5416.388740899998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>2050</v>
       </c>
       <c r="J87" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3905,13 +3523,13 @@
         <v>-5671.575740899998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>2047</v>
       </c>
       <c r="J88" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3946,11 +3564,13 @@
         <v>-4715.402540899998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2046</v>
+      </c>
       <c r="J89" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3985,11 +3605,13 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2047</v>
+      </c>
       <c r="J90" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4024,13 +3646,13 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>2071</v>
       </c>
       <c r="J91" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4065,11 +3687,13 @@
         <v>-3046.002540899998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2071</v>
+      </c>
       <c r="J92" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4104,13 +3728,13 @@
         <v>-2934.902540899998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>2075</v>
       </c>
       <c r="J93" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4145,13 +3769,13 @@
         <v>-2933.847840899998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>2078</v>
       </c>
       <c r="J94" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4186,13 +3810,13 @@
         <v>-2938.617240899998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>2080</v>
       </c>
       <c r="J95" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4227,13 +3851,11 @@
         <v>-2927.562540899998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4268,13 +3890,11 @@
         <v>-2915.367040899998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4309,13 +3929,11 @@
         <v>-2833.367040899998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2087</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4350,13 +3968,11 @@
         <v>-2491.092040899998</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4391,13 +4007,11 @@
         <v>-2212.503440899998</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4432,13 +4046,11 @@
         <v>-2212.503440899998</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4473,13 +4085,11 @@
         <v>-1962.503440899998</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4514,13 +4124,11 @@
         <v>-2146.004740899998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4559,7 +4167,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4594,13 +4202,11 @@
         <v>-2479.256040899998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4635,13 +4241,11 @@
         <v>-2429.256040899998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4680,7 +4284,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4719,7 +4323,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4754,13 +4358,11 @@
         <v>-2901.708840899998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4799,7 +4401,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4838,7 +4440,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4877,7 +4479,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4916,7 +4518,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4955,7 +4557,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4994,7 +4596,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5033,7 +4635,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5072,7 +4674,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5111,7 +4713,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5150,7 +4752,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5189,7 +4791,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5228,7 +4830,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5267,7 +4869,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5306,7 +4908,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5345,7 +4947,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5384,7 +4986,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5423,7 +5025,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5462,7 +5064,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5501,7 +5103,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5540,7 +5142,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5579,7 +5181,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5618,7 +5220,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5657,7 +5259,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5696,7 +5298,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5735,7 +5337,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5774,7 +5376,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5813,7 +5415,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5852,7 +5454,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5891,7 +5493,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5930,7 +5532,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5969,7 +5571,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6008,7 +5610,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6047,7 +5649,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6086,7 +5688,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6125,7 +5727,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6164,7 +5766,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6203,7 +5805,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6242,7 +5844,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6281,7 +5883,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6320,7 +5922,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6359,7 +5961,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6398,7 +6000,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6437,7 +6039,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6476,7 +6078,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6515,7 +6117,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6550,13 +6152,11 @@
         <v>2466.877865080004</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6591,13 +6191,11 @@
         <v>2065.917365080003</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6632,13 +6230,11 @@
         <v>1892.177265080004</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6677,7 +6273,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6716,7 +6312,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6755,7 +6351,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6794,7 +6390,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6833,7 +6429,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6872,7 +6468,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6911,7 +6507,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6950,7 +6546,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6989,7 +6585,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7028,7 +6624,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7067,7 +6663,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7106,7 +6702,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7145,7 +6741,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7184,7 +6780,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7223,7 +6819,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7262,7 +6858,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7301,7 +6897,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7340,7 +6936,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7379,7 +6975,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7418,7 +7014,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7457,7 +7053,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7496,7 +7092,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7535,7 +7131,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7574,7 +7170,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7613,7 +7209,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7652,7 +7248,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7691,7 +7287,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7730,7 +7326,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7769,7 +7365,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7808,7 +7404,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7843,13 +7439,11 @@
         <v>711.0121650800036</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7884,13 +7478,11 @@
         <v>710.0121650800036</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2072</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7925,13 +7517,11 @@
         <v>704.9880650800036</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7966,13 +7556,11 @@
         <v>703.9880650800036</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>2070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -8007,13 +7595,11 @@
         <v>703.9880650800036</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>2069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8048,13 +7634,11 @@
         <v>754.7758650800035</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>2069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8089,13 +7673,11 @@
         <v>1177.093665080004</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>2070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8130,13 +7712,11 @@
         <v>1987.749665080004</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>2071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8171,13 +7751,11 @@
         <v>1937.734665080003</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8212,13 +7790,11 @@
         <v>1927.104965080003</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8253,13 +7829,11 @@
         <v>1927.104965080003</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8294,13 +7868,11 @@
         <v>1914.987965080004</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8335,13 +7907,11 @@
         <v>1921.987965080004</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2065</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8376,13 +7946,11 @@
         <v>1921.987965080004</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8417,13 +7985,11 @@
         <v>3032.795165080003</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8458,13 +8024,11 @@
         <v>3860.469165080003</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8499,13 +8063,11 @@
         <v>3860.469165080003</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8540,13 +8102,11 @@
         <v>5991.374865080003</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8581,13 +8141,11 @@
         <v>6777.374865080003</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8622,13 +8180,11 @@
         <v>10240.53956508</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8663,13 +8219,11 @@
         <v>10166.27216508</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8704,13 +8258,11 @@
         <v>10201.04826508</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>2088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8749,7 +8301,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8788,7 +8340,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8827,7 +8379,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8866,7 +8418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8905,7 +8457,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8944,7 +8496,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8983,7 +8535,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9022,7 +8574,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9061,7 +8613,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9100,7 +8652,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9139,7 +8691,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9178,7 +8730,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9217,7 +8769,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9256,7 +8808,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9295,7 +8847,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9334,7 +8886,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9373,7 +8925,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9412,7 +8964,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9451,7 +9003,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9490,7 +9042,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9529,7 +9081,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9568,7 +9120,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9607,7 +9159,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9646,7 +9198,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9685,7 +9237,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9724,7 +9276,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9763,7 +9315,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9802,7 +9354,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9841,7 +9393,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9880,7 +9432,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9919,7 +9471,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9958,7 +9510,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9997,7 +9549,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -10036,7 +9588,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -10075,7 +9627,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -10114,7 +9666,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10153,7 +9705,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10192,7 +9744,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10231,7 +9783,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10270,7 +9822,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10309,7 +9861,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10348,7 +9900,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10387,7 +9939,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10426,7 +9978,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10465,7 +10017,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10504,7 +10056,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10543,7 +10095,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10582,7 +10134,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10621,7 +10173,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10660,7 +10212,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10699,7 +10251,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10738,7 +10290,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10777,7 +10329,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10816,7 +10368,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10855,7 +10407,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10894,7 +10446,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10933,7 +10485,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10972,7 +10524,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -11011,7 +10563,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -11050,7 +10602,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -11089,7 +10641,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11128,7 +10680,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11167,7 +10719,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11206,7 +10758,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11245,7 +10797,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11284,7 +10836,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11323,7 +10875,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11362,7 +10914,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11401,7 +10953,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11440,7 +10992,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11479,7 +11031,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11518,7 +11070,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11557,7 +11109,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11596,7 +11148,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11635,7 +11187,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11674,7 +11226,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11713,7 +11265,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11752,7 +11304,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11791,7 +11343,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11830,7 +11382,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11869,7 +11421,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11908,7 +11460,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11947,7 +11499,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11986,7 +11538,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -12025,7 +11577,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12064,7 +11616,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12103,7 +11655,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12142,7 +11694,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12181,7 +11733,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12220,7 +11772,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12259,7 +11811,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12298,7 +11850,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12337,7 +11889,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12376,7 +11928,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12415,7 +11967,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12454,7 +12006,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12493,7 +12045,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12532,7 +12084,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12571,7 +12123,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12610,7 +12162,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12649,7 +12201,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12688,7 +12240,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12727,7 +12279,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12766,7 +12318,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12805,7 +12357,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12844,7 +12396,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12883,7 +12435,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12922,7 +12474,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12961,7 +12513,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -13000,7 +12552,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13039,7 +12591,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13078,7 +12630,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13117,7 +12669,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13156,7 +12708,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13195,7 +12747,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13234,7 +12786,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13273,7 +12825,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13312,7 +12864,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13351,7 +12903,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13390,7 +12942,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13429,7 +12981,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13468,7 +13020,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13507,7 +13059,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13546,7 +13098,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13585,7 +13137,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13624,7 +13176,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13663,7 +13215,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13702,7 +13254,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13741,7 +13293,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13780,7 +13332,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13819,7 +13371,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13858,7 +13410,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13897,7 +13449,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13936,7 +13488,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13975,7 +13527,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -14014,7 +13566,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -14053,7 +13605,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -14092,7 +13644,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14131,7 +13683,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14170,7 +13722,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14209,7 +13761,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14248,7 +13800,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14287,7 +13839,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14326,7 +13878,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14365,7 +13917,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14404,7 +13956,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14443,7 +13995,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14482,7 +14034,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14521,7 +14073,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14560,7 +14112,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14599,7 +14151,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14638,7 +14190,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14677,7 +14229,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14716,7 +14268,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14755,7 +14307,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14794,7 +14346,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14833,7 +14385,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14872,7 +14424,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14911,7 +14463,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14950,7 +14502,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14989,7 +14541,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -15028,7 +14580,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -15067,7 +14619,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -15106,7 +14658,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15145,7 +14697,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15184,7 +14736,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15223,7 +14775,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15262,7 +14814,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15301,7 +14853,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15340,7 +14892,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15379,7 +14931,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15418,7 +14970,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15457,7 +15009,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15496,7 +15048,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15535,7 +15087,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15574,7 +15126,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15613,7 +15165,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15652,7 +15204,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15691,7 +15243,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15730,7 +15282,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15769,7 +15321,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15808,7 +15360,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15847,7 +15399,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15886,7 +15438,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15925,7 +15477,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15964,7 +15516,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -16003,7 +15555,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -16042,7 +15594,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -16081,7 +15633,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -16120,7 +15672,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16159,7 +15711,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16198,7 +15750,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16237,7 +15789,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16276,7 +15828,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16315,7 +15867,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16354,7 +15906,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16393,7 +15945,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16432,7 +15984,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -16471,7 +16023,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -16510,7 +16062,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -16549,7 +16101,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -16588,7 +16140,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -16627,7 +16179,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -16666,7 +16218,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -16705,7 +16257,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -16744,7 +16296,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -16783,7 +16335,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16822,7 +16374,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16861,7 +16413,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16900,7 +16452,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16939,7 +16491,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16978,7 +16530,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -17017,7 +16569,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -17056,7 +16608,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -17095,7 +16647,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -17134,7 +16686,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -17173,7 +16725,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -17212,7 +16764,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -17251,7 +16803,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -17290,7 +16842,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -17329,7 +16881,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -17368,7 +16920,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -17407,7 +16959,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -17446,7 +16998,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -17485,7 +17037,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -17524,7 +17076,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -17563,7 +17115,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -17602,7 +17154,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -17641,7 +17193,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -17680,7 +17232,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -17719,7 +17271,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -17758,7 +17310,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17797,7 +17349,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17836,7 +17388,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17875,7 +17427,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17914,7 +17466,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17953,7 +17505,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17992,7 +17544,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -18031,7 +17583,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -18070,7 +17622,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -18109,7 +17661,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -18148,7 +17700,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -18187,7 +17739,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -18226,7 +17778,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -18265,7 +17817,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -18304,7 +17856,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -18343,7 +17895,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -18382,7 +17934,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -18421,7 +17973,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -18460,7 +18012,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -18499,7 +18051,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -18538,7 +18090,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -18577,7 +18129,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -18616,7 +18168,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -18655,7 +18207,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -18694,7 +18246,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -18733,7 +18285,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -18772,7 +18324,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18811,7 +18363,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18850,7 +18402,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18889,7 +18441,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18928,7 +18480,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18967,7 +18519,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -19006,7 +18558,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -19045,7 +18597,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -19084,7 +18636,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -19123,7 +18675,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -19162,7 +18714,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -19201,7 +18753,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -19240,7 +18792,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -19279,7 +18831,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -19318,7 +18870,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -19357,7 +18909,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -19396,7 +18948,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -19435,7 +18987,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -19474,7 +19026,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -19513,7 +19065,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -19552,7 +19104,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -19591,7 +19143,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -19630,7 +19182,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -19669,7 +19221,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -19708,7 +19260,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -19747,7 +19299,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -19786,7 +19338,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19825,7 +19377,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19864,7 +19416,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19903,7 +19455,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19942,7 +19494,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19981,7 +19533,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -20020,7 +19572,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -20059,7 +19611,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -20098,7 +19650,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -20137,7 +19689,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -20176,7 +19728,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -20215,7 +19767,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -20254,7 +19806,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -20293,7 +19845,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -20332,7 +19884,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -20371,7 +19923,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -20410,7 +19962,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -20449,7 +20001,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -20488,7 +20040,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -20527,7 +20079,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -20566,7 +20118,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -20605,7 +20157,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -20644,7 +20196,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -20683,7 +20235,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -20722,7 +20274,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -20761,7 +20313,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20800,7 +20352,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20839,7 +20391,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20878,7 +20430,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20917,7 +20469,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20956,7 +20508,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20995,7 +20547,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -21034,7 +20586,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -21073,7 +20625,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -21112,7 +20664,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -21151,7 +20703,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -21190,7 +20742,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -21229,7 +20781,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -21268,7 +20820,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -21307,7 +20859,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -21346,7 +20898,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -21385,7 +20937,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -21424,7 +20976,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -21463,7 +21015,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -21502,7 +21054,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -21541,7 +21093,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -21580,7 +21132,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -21619,7 +21171,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -21658,7 +21210,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -21697,7 +21249,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -21736,7 +21288,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -21775,7 +21327,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -21814,7 +21366,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -21853,7 +21405,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -21892,7 +21444,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -21931,7 +21483,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -21970,7 +21522,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -22009,7 +21561,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -22048,7 +21600,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -22087,7 +21639,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -22126,7 +21678,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -22165,7 +21717,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -22204,7 +21756,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -22243,7 +21795,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -22282,7 +21834,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -22321,7 +21873,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -22360,7 +21912,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -22399,7 +21951,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -22438,7 +21990,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -22477,7 +22029,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -22516,7 +22068,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -22555,7 +22107,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -22594,7 +22146,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -22633,7 +22185,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -22672,7 +22224,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -22711,7 +22263,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -22750,7 +22302,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -22789,7 +22341,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -22828,7 +22380,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -22863,23 +22415,21 @@
         <v>57412.38615393002</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L572" t="n">
-        <v>1.0922894482091</v>
-      </c>
-      <c r="M572" t="n">
-        <v>1.011257953989231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -22904,11 +22454,17 @@
         <v>60109.48915393002</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22937,11 +22493,17 @@
         <v>57749.23558145002</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22970,11 +22532,17 @@
         <v>45446.92005865002</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23003,11 +22571,17 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23036,11 +22610,17 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23069,11 +22649,17 @@
         <v>43089.71355865002</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23102,11 +22688,17 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23135,11 +22727,17 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23168,11 +22766,17 @@
         <v>41850.50675865002</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23201,11 +22805,17 @@
         <v>43304.87025865002</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23234,11 +22844,17 @@
         <v>46323.87835865002</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23267,11 +22883,17 @@
         <v>43619.19415865002</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23300,11 +22922,17 @@
         <v>46565.18735865002</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23333,11 +22961,17 @@
         <v>42151.90215865002</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23366,11 +23000,17 @@
         <v>45734.20595865002</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23399,11 +23039,17 @@
         <v>53709.17145865002</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23432,11 +23078,17 @@
         <v>62663.63245865001</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23465,11 +23117,17 @@
         <v>46821.27045865001</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23498,11 +23156,17 @@
         <v>54096.50255865001</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23531,11 +23195,17 @@
         <v>32466.80076788001</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23564,11 +23234,17 @@
         <v>36852.30919293001</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23597,11 +23273,17 @@
         <v>48039.97512743001</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23630,11 +23312,17 @@
         <v>35527.22790416001</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23663,15 +23351,23 @@
         <v>26252.17530416001</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>2049</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
+        <v>1.141900927281601</v>
+      </c>
+      <c r="M596" t="n">
+        <v>1.031449631449632</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -23696,7 +23392,7 @@
         <v>17247.31780416001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23729,7 +23425,7 @@
         <v>13660.71540416001</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23762,7 +23458,7 @@
         <v>15784.71040416001</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23795,7 +23491,7 @@
         <v>10850.72820416001</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23828,7 +23524,7 @@
         <v>8105.93540416001</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23861,7 +23557,7 @@
         <v>1954.03460416001</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23894,7 +23590,7 @@
         <v>-2610.02639583999</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23927,7 +23623,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23960,7 +23656,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23993,7 +23689,7 @@
         <v>-11024.46453005999</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24026,7 +23722,7 @@
         <v>-6516.938920879989</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -24059,7 +23755,7 @@
         <v>-8151.351020879989</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -24092,7 +23788,7 @@
         <v>-10574.25242087999</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -24125,7 +23821,7 @@
         <v>-14143.67142087999</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -24158,7 +23854,7 @@
         <v>-16980.76682087999</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -24191,7 +23887,7 @@
         <v>-24933.83292087999</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -24224,7 +23920,7 @@
         <v>-34811.60252087998</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -24257,7 +23953,7 @@
         <v>-35067.77422087998</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -24290,7 +23986,7 @@
         <v>-34733.51822087998</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24323,7 +24019,7 @@
         <v>-29848.89102087998</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24356,7 +24052,7 @@
         <v>-31607.09232087998</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24389,7 +24085,7 @@
         <v>-30500.01522087998</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24422,7 +24118,7 @@
         <v>-26270.44992087998</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24521,7 +24217,7 @@
         <v>-27202.75252087998</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24554,7 +24250,7 @@
         <v>-22505.20872087998</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24587,7 +24283,7 @@
         <v>-23583.77702087998</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24686,7 +24382,7 @@
         <v>-11265.89802087998</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24719,7 +24415,7 @@
         <v>-16002.46054592998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24752,7 +24448,7 @@
         <v>-15765.84534592998</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24785,7 +24481,7 @@
         <v>-17670.47554592998</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24818,7 +24514,7 @@
         <v>-17670.47554592998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24851,7 +24547,7 @@
         <v>-17245.05904592998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24884,7 +24580,7 @@
         <v>-14828.01384592998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24917,7 +24613,7 @@
         <v>-15523.91254592998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24950,7 +24646,7 @@
         <v>-17544.89944592998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24983,7 +24679,7 @@
         <v>-17430.67504592998</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25016,7 +24712,7 @@
         <v>-17316.48694592998</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -25049,7 +24745,7 @@
         <v>-17511.74954592998</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -25082,7 +24778,7 @@
         <v>-15831.42874592998</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -25115,7 +24811,7 @@
         <v>-15870.66264592998</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -25148,7 +24844,7 @@
         <v>-13579.69454592998</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -25181,7 +24877,7 @@
         <v>-12787.42315730998</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25313,7 +25009,7 @@
         <v>-16596.40231168998</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25346,7 +25042,7 @@
         <v>-18965.31781168998</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25379,7 +25075,7 @@
         <v>-19444.19221168998</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25412,7 +25108,7 @@
         <v>-21546.40787372999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25445,7 +25141,7 @@
         <v>-20935.31017372999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25478,7 +25174,7 @@
         <v>-21948.59987372999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25544,7 +25240,7 @@
         <v>-20490.17827372999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25577,7 +25273,7 @@
         <v>-15972.24817372999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25610,7 +25306,7 @@
         <v>-14888.81567372999</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25643,7 +25339,7 @@
         <v>-7965.711813479987</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25676,7 +25372,7 @@
         <v>-18869.39581347999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25709,7 +25405,7 @@
         <v>-17956.38601347999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25742,7 +25438,7 @@
         <v>-24375.51859121999</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25775,7 +25471,7 @@
         <v>-28938.35919121999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25808,7 +25504,7 @@
         <v>-28179.49919121999</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25841,7 +25537,7 @@
         <v>-28020.19329121999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25874,7 +25570,7 @@
         <v>-33914.69319121999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25907,7 +25603,7 @@
         <v>-34845.15769121999</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25940,7 +25636,7 @@
         <v>-36189.78689121999</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25973,7 +25669,7 @@
         <v>-36697.90279121999</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -26006,7 +25702,7 @@
         <v>-36626.86559121999</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -26039,7 +25735,7 @@
         <v>-33893.14119121999</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26072,7 +25768,7 @@
         <v>-35383.60069121999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -26105,7 +25801,7 @@
         <v>-38391.78829121999</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -26138,7 +25834,7 @@
         <v>-43690.18329121999</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -26171,7 +25867,7 @@
         <v>-45413.15389121999</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -26204,7 +25900,7 @@
         <v>-48954.50209121999</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -26237,7 +25933,7 @@
         <v>-50913.28909121999</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -26270,7 +25966,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26303,7 +25999,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26336,7 +26032,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26369,7 +26065,7 @@
         <v>-53781.50939121999</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26402,7 +26098,7 @@
         <v>-57138.88809121999</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26435,7 +26131,7 @@
         <v>-59490.73279121999</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26468,7 +26164,7 @@
         <v>-57299.17099121999</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26501,7 +26197,7 @@
         <v>-62831.55369121999</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26534,7 +26230,7 @@
         <v>-66164.55579121999</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -27040,6 +26736,6 @@
       <c r="M698" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-27 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,10 +2068,14 @@
         <v>-2947.372140899998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2045</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2045</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2101,11 +2105,19 @@
         <v>-3345.009340899998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2048</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2045</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2146,19 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2039</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2045</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2187,19 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2035</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2045</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2228,19 @@
         <v>-3026.824540899998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2035</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2045</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2269,19 @@
         <v>-3471.421540899998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2044</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2045</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2272,9 +2316,13 @@
         <v>2041</v>
       </c>
       <c r="J57" t="n">
-        <v>2041</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>2045</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2309,11 +2357,11 @@
         <v>2048</v>
       </c>
       <c r="J58" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2350,11 +2398,11 @@
         <v>2049</v>
       </c>
       <c r="J59" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2391,9 +2439,13 @@
         <v>2049</v>
       </c>
       <c r="J60" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>2045</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2428,11 +2480,11 @@
         <v>2048</v>
       </c>
       <c r="J61" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2469,11 +2521,11 @@
         <v>2049</v>
       </c>
       <c r="J62" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2510,11 +2562,11 @@
         <v>2049</v>
       </c>
       <c r="J63" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2551,7 +2603,7 @@
         <v>2056</v>
       </c>
       <c r="J64" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2592,7 +2644,7 @@
         <v>2047</v>
       </c>
       <c r="J65" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2633,7 +2685,7 @@
         <v>2055</v>
       </c>
       <c r="J66" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2674,7 +2726,7 @@
         <v>2069</v>
       </c>
       <c r="J67" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2709,11 +2761,13 @@
         <v>-2638.960140899998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2069</v>
+      </c>
       <c r="J68" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2748,11 +2802,13 @@
         <v>-2633.960140899998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2053</v>
+      </c>
       <c r="J69" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2793,7 +2849,7 @@
         <v>2058</v>
       </c>
       <c r="J70" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2834,7 +2890,7 @@
         <v>2042</v>
       </c>
       <c r="J71" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2869,11 +2925,13 @@
         <v>-1775.905540899998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2047</v>
+      </c>
       <c r="J72" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2914,7 +2972,7 @@
         <v>2046</v>
       </c>
       <c r="J73" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2955,7 +3013,7 @@
         <v>2045</v>
       </c>
       <c r="J74" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2996,7 +3054,7 @@
         <v>2045</v>
       </c>
       <c r="J75" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3037,7 +3095,7 @@
         <v>2037</v>
       </c>
       <c r="J76" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3078,7 +3136,7 @@
         <v>2038</v>
       </c>
       <c r="J77" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3113,13 +3171,11 @@
         <v>-1916.959640899998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3160,7 +3216,7 @@
         <v>2038</v>
       </c>
       <c r="J79" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3201,7 +3257,7 @@
         <v>2044</v>
       </c>
       <c r="J80" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3236,13 +3292,11 @@
         <v>-5639.822440899998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3277,13 +3331,11 @@
         <v>-5609.042640899997</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3324,7 +3376,7 @@
         <v>2042</v>
       </c>
       <c r="J83" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3365,7 +3417,7 @@
         <v>2034</v>
       </c>
       <c r="J84" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3400,13 +3452,11 @@
         <v>-5584.514140899998</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3441,13 +3491,11 @@
         <v>-5334.514140899998</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3488,7 +3536,7 @@
         <v>2050</v>
       </c>
       <c r="J87" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3529,7 +3577,7 @@
         <v>2047</v>
       </c>
       <c r="J88" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3564,13 +3612,11 @@
         <v>-4715.402540899998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3605,13 +3651,11 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3646,13 +3690,11 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3687,13 +3729,11 @@
         <v>-3046.002540899998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3728,13 +3768,11 @@
         <v>-2934.902540899998</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3769,13 +3807,11 @@
         <v>-2933.847840899998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3810,13 +3846,11 @@
         <v>-2938.617240899998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3855,7 +3889,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3894,7 +3928,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3933,7 +3967,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3972,7 +4006,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4011,7 +4045,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4050,7 +4084,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4089,7 +4123,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4128,7 +4162,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4167,7 +4201,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4206,7 +4240,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4245,7 +4279,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4284,7 +4318,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4323,7 +4357,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4362,7 +4396,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4401,7 +4435,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4440,7 +4474,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4479,7 +4513,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4518,7 +4552,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4557,7 +4591,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4596,7 +4630,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4635,7 +4669,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4674,7 +4708,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4713,7 +4747,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4752,7 +4786,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4791,7 +4825,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4830,7 +4864,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4869,7 +4903,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4908,7 +4942,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4947,7 +4981,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4986,7 +5020,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5025,7 +5059,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5064,7 +5098,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5103,7 +5137,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5142,7 +5176,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5181,7 +5215,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5220,7 +5254,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5259,7 +5293,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5298,7 +5332,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5337,7 +5371,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5376,7 +5410,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5415,7 +5449,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5454,7 +5488,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5493,7 +5527,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5532,7 +5566,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5571,7 +5605,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5610,7 +5644,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5649,7 +5683,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5688,7 +5722,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5727,7 +5761,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5766,7 +5800,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5805,7 +5839,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5844,7 +5878,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5883,7 +5917,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5922,7 +5956,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5961,7 +5995,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6000,7 +6034,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6039,7 +6073,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6078,7 +6112,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6117,7 +6151,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6156,7 +6190,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6195,7 +6229,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6234,7 +6268,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6273,7 +6307,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6312,7 +6346,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6351,7 +6385,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6390,7 +6424,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6429,7 +6463,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6468,7 +6502,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6507,7 +6541,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6546,7 +6580,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6585,7 +6619,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6624,7 +6658,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6663,7 +6697,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6702,7 +6736,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6741,7 +6775,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6780,7 +6814,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6819,7 +6853,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6858,7 +6892,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6897,7 +6931,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6936,7 +6970,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6975,7 +7009,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7014,7 +7048,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7053,7 +7087,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7092,7 +7126,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7131,7 +7165,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7170,7 +7204,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7209,7 +7243,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7248,7 +7282,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7287,7 +7321,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7326,7 +7360,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7365,7 +7399,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7404,7 +7438,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7443,7 +7477,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7482,7 +7516,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7521,7 +7555,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7560,7 +7594,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7599,7 +7633,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7638,7 +7672,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7677,7 +7711,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7716,7 +7750,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7755,7 +7789,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7794,7 +7828,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7833,7 +7867,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7872,7 +7906,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7911,7 +7945,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7950,7 +7984,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7989,7 +8023,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8028,7 +8062,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8067,7 +8101,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8106,7 +8140,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8145,7 +8179,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8184,7 +8218,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8223,7 +8257,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8262,7 +8296,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8301,7 +8335,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8340,7 +8374,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8379,7 +8413,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8418,7 +8452,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8457,7 +8491,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8496,7 +8530,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8535,7 +8569,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8574,7 +8608,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8613,7 +8647,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8652,7 +8686,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8691,7 +8725,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8730,7 +8764,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8769,7 +8803,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8808,7 +8842,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8847,7 +8881,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8886,7 +8920,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8925,7 +8959,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8964,7 +8998,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9003,7 +9037,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9042,7 +9076,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9081,7 +9115,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9120,7 +9154,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9159,7 +9193,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9198,7 +9232,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9233,21 +9267,23 @@
         <v>60620.01384180001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>1.060036674816626</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.027410670582477</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9272,17 +9308,11 @@
         <v>52720.30494180001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9311,17 +9341,11 @@
         <v>38384.37974180001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9350,17 +9374,11 @@
         <v>42304.78224180001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9389,17 +9407,11 @@
         <v>39878.87514180002</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9428,17 +9440,11 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9467,17 +9473,11 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9506,17 +9506,11 @@
         <v>44059.26804180002</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9545,17 +9539,11 @@
         <v>44467.24834180002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9584,17 +9572,11 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9623,17 +9605,11 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9662,17 +9638,11 @@
         <v>48725.95224180002</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9701,17 +9671,11 @@
         <v>45523.77504180002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9743,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9779,17 +9737,11 @@
         <v>38593.22934180002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9818,17 +9770,11 @@
         <v>38778.23744180002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9860,14 +9806,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9899,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9938,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9974,17 +9902,11 @@
         <v>41546.21664180002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10013,17 +9935,11 @@
         <v>42302.77864180002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10052,17 +9968,11 @@
         <v>40143.28634180002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10091,17 +10001,11 @@
         <v>41049.52225298002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10130,17 +10034,11 @@
         <v>40599.56385298002</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10169,17 +10067,11 @@
         <v>39783.41995298002</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10208,17 +10100,11 @@
         <v>37856.41995298002</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10247,17 +10133,11 @@
         <v>34873.42675298002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10286,17 +10166,11 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10325,17 +10199,11 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10364,17 +10232,11 @@
         <v>44249.70365298002</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10403,17 +10265,11 @@
         <v>47836.02533277003</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10442,17 +10298,11 @@
         <v>44396.55223277002</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10481,17 +10331,11 @@
         <v>41725.30753277002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10523,14 +10367,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10562,14 +10400,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10598,17 +10430,11 @@
         <v>35466.30803277002</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10637,17 +10463,11 @@
         <v>35887.52743277002</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10676,17 +10496,11 @@
         <v>33099.38973277003</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10718,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10757,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10796,14 +10598,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10835,14 +10631,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10874,14 +10664,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10913,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10952,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10991,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11030,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11069,14 +10829,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11108,14 +10862,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11147,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11186,14 +10928,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11225,14 +10961,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11264,14 +10994,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11303,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11342,14 +11060,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11381,14 +11093,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11420,14 +11126,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11459,14 +11159,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11498,14 +11192,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11537,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11576,14 +11258,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11615,14 +11291,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11654,14 +11324,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11693,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11732,14 +11390,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11771,14 +11423,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11810,14 +11456,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11849,14 +11489,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11888,14 +11522,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11927,14 +11555,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11966,14 +11588,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12005,14 +11621,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12044,14 +11654,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12083,14 +11687,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12122,14 +11720,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12161,14 +11753,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12200,14 +11786,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12239,14 +11819,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12278,14 +11852,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12317,14 +11885,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12356,14 +11918,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12395,14 +11951,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12434,14 +11984,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12473,14 +12017,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12512,14 +12050,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12551,14 +12083,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12590,14 +12116,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12629,14 +12149,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12668,14 +12182,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12707,14 +12215,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12746,14 +12248,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12785,14 +12281,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12824,14 +12314,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12863,14 +12347,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12902,14 +12380,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12941,14 +12413,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12980,14 +12446,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13019,14 +12479,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13058,14 +12512,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13097,14 +12545,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13136,14 +12578,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13175,14 +12611,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13214,14 +12644,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13253,14 +12677,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13292,14 +12710,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13331,14 +12743,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13370,14 +12776,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13409,14 +12809,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13448,14 +12842,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13487,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13526,14 +12908,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13565,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13604,14 +12974,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13643,14 +13007,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13682,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13721,14 +13073,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13760,14 +13106,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13799,14 +13139,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13838,14 +13172,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13877,14 +13205,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13916,14 +13238,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13955,14 +13271,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13994,14 +13304,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14033,14 +13337,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14072,14 +13370,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14111,14 +13403,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14150,14 +13436,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14189,14 +13469,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14228,14 +13502,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14267,14 +13535,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14306,14 +13568,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14345,14 +13601,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14384,14 +13634,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14423,14 +13667,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14462,14 +13700,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14501,14 +13733,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14540,14 +13766,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14579,14 +13799,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14618,14 +13832,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14657,14 +13865,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14696,14 +13898,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14735,14 +13931,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14774,14 +13964,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14813,14 +13997,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14852,14 +14030,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14891,14 +14063,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14930,14 +14096,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14969,14 +14129,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15008,14 +14162,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15047,14 +14195,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15086,14 +14228,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15125,14 +14261,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15164,14 +14294,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15203,14 +14327,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15242,14 +14360,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15281,14 +14393,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15320,14 +14426,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15359,14 +14459,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15398,14 +14492,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15437,14 +14525,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15476,14 +14558,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15515,14 +14591,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15554,14 +14624,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15593,14 +14657,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15632,14 +14690,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15671,14 +14723,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15710,14 +14756,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15749,14 +14789,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15788,14 +14822,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15827,14 +14855,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15866,14 +14888,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15905,14 +14921,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15944,14 +14954,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15983,14 +14987,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16022,14 +15020,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16061,14 +15053,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16100,14 +15086,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16139,14 +15119,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16178,14 +15152,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16217,14 +15185,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16256,14 +15218,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16295,14 +15251,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16334,14 +15284,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16373,14 +15317,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16412,14 +15350,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16451,14 +15383,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16490,14 +15416,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16529,14 +15449,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16568,14 +15482,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16607,14 +15515,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16646,14 +15548,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16685,14 +15581,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16724,14 +15614,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16763,14 +15647,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16802,14 +15680,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16841,14 +15713,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16880,14 +15746,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16919,14 +15779,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16958,14 +15812,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16997,14 +15845,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17036,14 +15878,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17075,14 +15911,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17114,14 +15944,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17153,14 +15977,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17192,14 +16010,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17231,14 +16043,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17270,14 +16076,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17309,14 +16109,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17348,14 +16142,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17387,14 +16175,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17426,14 +16208,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17465,14 +16241,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17504,14 +16274,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17543,14 +16307,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17582,14 +16340,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17621,14 +16373,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17660,14 +16406,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17699,14 +16439,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17738,14 +16472,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17777,14 +16505,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17816,14 +16538,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17855,14 +16571,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17894,14 +16604,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17933,14 +16637,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17972,14 +16670,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18011,14 +16703,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18050,14 +16736,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18089,14 +16769,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18128,14 +16802,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18167,14 +16835,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18206,14 +16868,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18245,14 +16901,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18284,14 +16934,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18323,14 +16967,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18362,14 +17000,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18401,14 +17033,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18440,14 +17066,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18479,14 +17099,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18518,14 +17132,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18557,14 +17165,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18596,14 +17198,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18635,14 +17231,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18674,14 +17264,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18713,14 +17297,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18752,14 +17330,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18791,14 +17363,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18830,14 +17396,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18869,14 +17429,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18908,14 +17462,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18947,14 +17495,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18986,14 +17528,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19025,14 +17561,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19064,14 +17594,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19103,14 +17627,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19142,14 +17660,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19181,14 +17693,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19220,14 +17726,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19259,14 +17759,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19298,14 +17792,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19337,14 +17825,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19376,14 +17858,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19415,14 +17891,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19454,14 +17924,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19493,14 +17957,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19532,14 +17990,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19571,14 +18023,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19610,14 +18056,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19649,14 +18089,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19688,14 +18122,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19727,14 +18155,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19766,14 +18188,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19805,14 +18221,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19844,14 +18254,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19883,14 +18287,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19922,14 +18320,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19961,14 +18353,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20000,14 +18386,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20039,14 +18419,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20078,14 +18452,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20117,14 +18485,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20156,14 +18518,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20195,14 +18551,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20234,14 +18584,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20273,14 +18617,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20312,14 +18650,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20351,14 +18683,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20390,14 +18716,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20429,14 +18749,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20468,14 +18782,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20507,14 +18815,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20546,14 +18848,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20585,14 +18881,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20624,14 +18914,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20663,14 +18947,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20702,14 +18980,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20741,14 +19013,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20780,14 +19046,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20819,14 +19079,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20858,14 +19112,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20897,14 +19145,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20936,14 +19178,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20975,14 +19211,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -21014,14 +19244,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -21053,14 +19277,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -21092,14 +19310,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -21131,14 +19343,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -21170,14 +19376,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21209,14 +19409,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21248,14 +19442,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21287,14 +19475,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21326,14 +19508,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21365,14 +19541,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -21404,14 +19574,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21443,14 +19607,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21482,14 +19640,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21521,14 +19673,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21560,14 +19706,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21599,14 +19739,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21638,14 +19772,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21677,14 +19805,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21716,14 +19838,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21755,14 +19871,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21794,14 +19904,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21833,14 +19937,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21872,14 +19970,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21911,14 +20003,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21950,14 +20036,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21989,14 +20069,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22028,14 +20102,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22067,14 +20135,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22106,14 +20168,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22145,14 +20201,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22184,14 +20234,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -22223,14 +20267,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -22262,14 +20300,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -22301,14 +20333,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -22340,14 +20366,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -22379,14 +20399,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22418,14 +20432,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22454,17 +20462,11 @@
         <v>60109.48915393002</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22493,17 +20495,11 @@
         <v>57749.23558145002</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22532,17 +20528,11 @@
         <v>45446.92005865002</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22571,17 +20561,11 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22610,17 +20594,11 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22649,17 +20627,11 @@
         <v>43089.71355865002</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22688,17 +20660,11 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22727,17 +20693,11 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22766,17 +20726,11 @@
         <v>41850.50675865002</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22805,17 +20759,11 @@
         <v>43304.87025865002</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22844,17 +20792,11 @@
         <v>46323.87835865002</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22883,17 +20825,11 @@
         <v>43619.19415865002</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -22925,14 +20861,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -22961,17 +20891,11 @@
         <v>42151.90215865002</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23000,17 +20924,11 @@
         <v>45734.20595865002</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23039,17 +20957,11 @@
         <v>53709.17145865002</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23078,17 +20990,11 @@
         <v>62663.63245865001</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23120,14 +21026,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23159,14 +21059,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23198,14 +21092,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23237,14 +21125,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23276,14 +21158,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23315,14 +21191,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23351,23 +21221,15 @@
         <v>26252.17530416001</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
-        <v>1.141900927281601</v>
-      </c>
-      <c r="M596" t="n">
-        <v>1.031449631449632</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -23392,7 +21254,7 @@
         <v>17247.31780416001</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23425,7 +21287,7 @@
         <v>13660.71540416001</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23458,7 +21320,7 @@
         <v>15784.71040416001</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -23491,7 +21353,7 @@
         <v>10850.72820416001</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23524,7 +21386,7 @@
         <v>8105.93540416001</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23557,7 +21419,7 @@
         <v>1954.03460416001</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -23590,7 +21452,7 @@
         <v>-2610.02639583999</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -23623,7 +21485,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23656,7 +21518,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -23689,7 +21551,7 @@
         <v>-11024.46453005999</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -23722,7 +21584,7 @@
         <v>-6516.938920879989</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23755,7 +21617,7 @@
         <v>-8151.351020879989</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23788,7 +21650,7 @@
         <v>-10574.25242087999</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23821,7 +21683,7 @@
         <v>-14143.67142087999</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23854,7 +21716,7 @@
         <v>-16980.76682087999</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23887,7 +21749,7 @@
         <v>-24933.83292087999</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23920,7 +21782,7 @@
         <v>-34811.60252087998</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23953,7 +21815,7 @@
         <v>-35067.77422087998</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -24151,7 +22013,7 @@
         <v>-25802.63792087998</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24217,7 +22079,7 @@
         <v>-27202.75252087998</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24250,7 +22112,7 @@
         <v>-22505.20872087998</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24283,7 +22145,7 @@
         <v>-23583.77702087998</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24382,7 +22244,7 @@
         <v>-11265.89802087998</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24415,7 +22277,7 @@
         <v>-16002.46054592998</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24448,7 +22310,7 @@
         <v>-15765.84534592998</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24481,7 +22343,7 @@
         <v>-17670.47554592998</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24514,7 +22376,7 @@
         <v>-17670.47554592998</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24547,7 +22409,7 @@
         <v>-17245.05904592998</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24580,7 +22442,7 @@
         <v>-14828.01384592998</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24613,7 +22475,7 @@
         <v>-15523.91254592998</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24646,7 +22508,7 @@
         <v>-17544.89944592998</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24679,7 +22541,7 @@
         <v>-17430.67504592998</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24712,7 +22574,7 @@
         <v>-17316.48694592998</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24745,7 +22607,7 @@
         <v>-17511.74954592998</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24778,7 +22640,7 @@
         <v>-15831.42874592998</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24811,7 +22673,7 @@
         <v>-15870.66264592998</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24844,7 +22706,7 @@
         <v>-13579.69454592998</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24877,7 +22739,7 @@
         <v>-12787.42315730998</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -25009,7 +22871,7 @@
         <v>-16596.40231168998</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25042,7 +22904,7 @@
         <v>-18965.31781168998</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25075,7 +22937,7 @@
         <v>-19444.19221168998</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25108,7 +22970,7 @@
         <v>-21546.40787372999</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25141,7 +23003,7 @@
         <v>-20935.31017372999</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25174,7 +23036,7 @@
         <v>-21948.59987372999</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25240,7 +23102,7 @@
         <v>-20490.17827372999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25273,7 +23135,7 @@
         <v>-15972.24817372999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25306,7 +23168,7 @@
         <v>-14888.81567372999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25339,7 +23201,7 @@
         <v>-7965.711813479987</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25372,7 +23234,7 @@
         <v>-18869.39581347999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25405,7 +23267,7 @@
         <v>-17956.38601347999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25438,7 +23300,7 @@
         <v>-24375.51859121999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25471,7 +23333,7 @@
         <v>-28938.35919121999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25504,7 +23366,7 @@
         <v>-28179.49919121999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25537,7 +23399,7 @@
         <v>-28020.19329121999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25570,7 +23432,7 @@
         <v>-33914.69319121999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25603,7 +23465,7 @@
         <v>-34845.15769121999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25636,7 +23498,7 @@
         <v>-36189.78689121999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25669,7 +23531,7 @@
         <v>-36697.90279121999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25702,7 +23564,7 @@
         <v>-36626.86559121999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25735,7 +23597,7 @@
         <v>-33893.14119121999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25768,7 +23630,7 @@
         <v>-35383.60069121999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25801,7 +23663,7 @@
         <v>-38391.78829121999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25834,7 +23696,7 @@
         <v>-43690.18329121999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25867,7 +23729,7 @@
         <v>-45413.15389121999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25900,7 +23762,7 @@
         <v>-48954.50209121999</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25933,7 +23795,7 @@
         <v>-50913.28909121999</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25966,7 +23828,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25999,7 +23861,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26032,7 +23894,7 @@
         <v>-55321.11589121999</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26065,7 +23927,7 @@
         <v>-53781.50939121999</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26098,7 +23960,7 @@
         <v>-57138.88809121999</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26131,7 +23993,7 @@
         <v>-59490.73279121999</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26164,7 +24026,7 @@
         <v>-57299.17099121999</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26197,7 +24059,7 @@
         <v>-62831.55369121999</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26230,7 +24092,7 @@
         <v>-66164.55579121999</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26736,6 +24598,6 @@
       <c r="M698" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest QTUM.xlsx
+++ b/BackTest/2019-10-27 BackTest QTUM.xlsx
@@ -2068,14 +2068,10 @@
         <v>-2947.372140899998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2045</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2105,19 +2101,11 @@
         <v>-3345.009340899998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2048</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2146,19 +2134,11 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2039</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,19 +2167,11 @@
         <v>-3345.178940899998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2035</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2228,19 +2200,11 @@
         <v>-3026.824540899998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2035</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2269,19 +2233,11 @@
         <v>-3471.421540899998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2044</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2316,13 +2272,9 @@
         <v>2041</v>
       </c>
       <c r="J57" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2041</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2357,11 +2309,11 @@
         <v>2048</v>
       </c>
       <c r="J58" t="n">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2398,11 +2350,11 @@
         <v>2049</v>
       </c>
       <c r="J59" t="n">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2433,19 +2385,11 @@
         <v>-3382.680840899998</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2049</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2474,19 +2418,11 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2048</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2515,19 +2451,11 @@
         <v>-3079.658840899998</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2049</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2556,19 +2484,11 @@
         <v>-2188.548340899998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2049</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2597,19 +2517,11 @@
         <v>-3298.659640899998</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2056</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2638,19 +2550,11 @@
         <v>-1579.659640899998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2047</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2679,19 +2583,11 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2055</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2720,19 +2616,11 @@
         <v>-1575.459640899998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2069</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2761,19 +2649,11 @@
         <v>-2638.960140899998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2069</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2802,19 +2682,11 @@
         <v>-2633.960140899998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2053</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2843,19 +2715,11 @@
         <v>-2880.627940899998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2058</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2884,19 +2748,11 @@
         <v>-1755.401540899998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2042</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2925,19 +2781,11 @@
         <v>-1775.905540899998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2047</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2966,19 +2814,11 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2046</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3007,19 +2847,11 @@
         <v>-1859.381140899998</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2045</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3048,19 +2880,11 @@
         <v>-2100.713140899998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2045</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3095,13 +2919,9 @@
         <v>2037</v>
       </c>
       <c r="J76" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2037</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3136,11 +2956,11 @@
         <v>2038</v>
       </c>
       <c r="J77" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3175,11 +2995,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3210,19 +3030,11 @@
         <v>-1752.862040899998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2038</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3251,19 +3063,11 @@
         <v>-1472.566240899998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2044</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3099,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +3129,15 @@
         <v>-5609.042640899997</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2037</v>
+      </c>
       <c r="J82" t="n">
-        <v>2045</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2037</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3376,11 +3172,11 @@
         <v>2042</v>
       </c>
       <c r="J83" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3417,7 +3213,7 @@
         <v>2034</v>
       </c>
       <c r="J84" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3452,11 +3248,13 @@
         <v>-5584.514140899998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2033</v>
+      </c>
       <c r="J85" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3491,11 +3289,13 @@
         <v>-5334.514140899998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2041</v>
+      </c>
       <c r="J86" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3536,7 +3336,7 @@
         <v>2050</v>
       </c>
       <c r="J87" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3577,7 +3377,7 @@
         <v>2047</v>
       </c>
       <c r="J88" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3612,11 +3412,13 @@
         <v>-4715.402540899998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2046</v>
+      </c>
       <c r="J89" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3651,11 +3453,13 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2047</v>
+      </c>
       <c r="J90" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3690,11 +3494,13 @@
         <v>-3364.902540899998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2071</v>
+      </c>
       <c r="J91" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3729,11 +3535,13 @@
         <v>-3046.002540899998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2071</v>
+      </c>
       <c r="J92" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3768,11 +3576,13 @@
         <v>-2934.902540899998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2075</v>
+      </c>
       <c r="J93" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3807,11 +3617,13 @@
         <v>-2933.847840899998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2078</v>
+      </c>
       <c r="J94" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3846,11 +3658,13 @@
         <v>-2938.617240899998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2080</v>
+      </c>
       <c r="J95" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3885,11 +3699,13 @@
         <v>-2927.562540899998</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2078</v>
+      </c>
       <c r="J96" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3924,11 +3740,13 @@
         <v>-2915.367040899998</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2085</v>
+      </c>
       <c r="J97" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3963,11 +3781,13 @@
         <v>-2833.367040899998</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2087</v>
+      </c>
       <c r="J98" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4002,11 +3822,13 @@
         <v>-2491.092040899998</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2098</v>
+      </c>
       <c r="J99" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4045,7 +3867,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4084,7 +3906,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4123,7 +3945,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4162,7 +3984,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4201,7 +4023,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4240,7 +4062,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4279,7 +4101,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4318,7 +4140,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4357,7 +4179,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4396,7 +4218,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4435,7 +4257,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4474,7 +4296,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4513,7 +4335,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4552,7 +4374,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4591,7 +4413,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4630,7 +4452,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4669,7 +4491,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4708,7 +4530,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4747,7 +4569,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4786,7 +4608,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4825,7 +4647,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4864,7 +4686,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4903,7 +4725,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4942,7 +4764,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4981,7 +4803,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5020,7 +4842,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5059,7 +4881,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5098,7 +4920,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5137,7 +4959,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5176,7 +4998,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5215,7 +5037,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5254,7 +5076,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5293,7 +5115,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5332,7 +5154,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5371,7 +5193,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5410,7 +5232,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5449,7 +5271,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5488,7 +5310,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5527,7 +5349,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5566,7 +5388,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5605,7 +5427,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5644,7 +5466,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5683,7 +5505,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5722,7 +5544,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5761,7 +5583,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5800,7 +5622,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5839,7 +5661,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5878,7 +5700,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5917,7 +5739,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5956,7 +5778,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5995,7 +5817,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6034,7 +5856,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6073,7 +5895,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6112,7 +5934,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6151,7 +5973,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6190,7 +6012,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6229,7 +6051,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6268,7 +6090,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6307,7 +6129,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6346,7 +6168,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6385,7 +6207,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6424,7 +6246,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6463,7 +6285,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6502,7 +6324,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6541,7 +6363,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6580,7 +6402,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6619,7 +6441,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6658,7 +6480,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6697,7 +6519,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6736,7 +6558,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6775,7 +6597,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6814,7 +6636,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6853,7 +6675,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6892,7 +6714,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6931,7 +6753,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6970,7 +6792,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7009,7 +6831,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7048,7 +6870,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7087,7 +6909,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7126,7 +6948,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7165,7 +6987,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7204,7 +7026,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7243,7 +7065,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7282,7 +7104,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7321,7 +7143,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7360,7 +7182,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7399,7 +7221,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7438,7 +7260,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7477,7 +7299,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7516,7 +7338,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7555,7 +7377,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7594,7 +7416,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7633,7 +7455,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7672,7 +7494,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7711,7 +7533,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7750,7 +7572,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7789,7 +7611,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7828,7 +7650,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7867,7 +7689,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7906,7 +7728,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7945,7 +7767,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7984,7 +7806,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8023,7 +7845,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8062,7 +7884,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8101,7 +7923,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8140,7 +7962,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8179,7 +8001,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8218,7 +8040,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8257,7 +8079,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8296,7 +8118,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8335,7 +8157,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8374,7 +8196,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8413,7 +8235,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8452,7 +8274,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8491,7 +8313,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8530,7 +8352,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8569,7 +8391,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8608,7 +8430,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8647,7 +8469,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8686,7 +8508,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8725,7 +8547,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8764,7 +8586,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8803,7 +8625,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8842,7 +8664,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8881,7 +8703,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8920,7 +8742,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8959,7 +8781,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8998,7 +8820,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9037,7 +8859,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9076,7 +8898,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9115,7 +8937,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9154,7 +8976,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9193,7 +9015,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9232,7 +9054,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9267,23 +9089,21 @@
         <v>60620.01384180001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>1.060036674816626</v>
-      </c>
-      <c r="M234" t="n">
-        <v>1.027410670582477</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9308,11 +9128,17 @@
         <v>52720.30494180001</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9341,11 +9167,17 @@
         <v>38384.37974180001</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9374,11 +9206,17 @@
         <v>42304.78224180001</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9407,11 +9245,17 @@
         <v>39878.87514180002</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +9284,17 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +9323,17 @@
         <v>40466.73934180001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9506,11 +9362,17 @@
         <v>44059.26804180002</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9539,11 +9401,17 @@
         <v>44467.24834180002</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9572,11 +9440,17 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9605,11 +9479,17 @@
         <v>47755.68234180002</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9638,11 +9518,17 @@
         <v>48725.95224180002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9671,11 +9557,17 @@
         <v>45523.77504180002</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9707,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9737,11 +9635,17 @@
         <v>38593.22934180002</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9770,11 +9674,17 @@
         <v>38778.23744180002</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9806,8 +9716,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9839,8 +9755,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9902,11 +9830,17 @@
         <v>41546.21664180002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9935,11 +9869,17 @@
         <v>42302.77864180002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +9908,17 @@
         <v>40143.28634180002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10001,11 +9947,17 @@
         <v>41049.52225298002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10034,11 +9986,17 @@
         <v>40599.56385298002</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10067,11 +10025,17 @@
         <v>39783.41995298002</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10100,11 +10064,17 @@
         <v>37856.41995298002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10133,11 +10103,17 @@
         <v>34873.42675298002</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10166,11 +10142,17 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10199,11 +10181,17 @@
         <v>44221.86415298002</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +10220,17 @@
         <v>44249.70365298002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10265,11 +10259,17 @@
         <v>47836.02533277003</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10298,11 +10298,17 @@
         <v>44396.55223277002</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10331,11 +10337,17 @@
         <v>41725.30753277002</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10367,8 +10379,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10400,8 +10418,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10430,11 +10454,17 @@
         <v>35466.30803277002</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10463,11 +10493,17 @@
         <v>35887.52743277002</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +10532,17 @@
         <v>33099.38973277003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10532,8 +10574,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10565,8 +10613,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10598,8 +10652,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10631,8 +10691,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10664,8 +10730,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10697,8 +10769,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10730,8 +10808,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10763,8 +10847,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10796,8 +10886,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10829,8 +10925,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10862,8 +10964,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10895,8 +11003,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10928,8 +11042,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10961,8 +11081,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10994,8 +11120,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11159,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +11198,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11093,8 +11237,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11126,8 +11276,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11159,8 +11315,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11192,8 +11354,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11258,8 +11432,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11291,8 +11471,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +11510,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11357,8 +11549,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11588,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11423,8 +11627,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11456,8 +11666,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +11705,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11522,8 +11744,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11555,8 +11783,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11588,8 +11822,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11621,8 +11861,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11654,8 +11900,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11687,8 +11939,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11720,8 +11978,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11753,8 +12017,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11786,8 +12056,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11819,8 +12095,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11852,8 +12134,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11885,8 +12173,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11918,8 +12212,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11951,8 +12251,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11984,8 +12290,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12017,8 +12329,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +12368,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +12407,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12116,8 +12446,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +12485,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12524,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12563,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12248,8 +12602,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12281,8 +12641,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12314,8 +12680,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12347,8 +12719,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12380,8 +12758,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +12797,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12446,8 +12836,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12479,8 +12875,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12512,8 +12914,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12545,8 +12953,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12578,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12611,8 +13031,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12644,8 +13070,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12677,8 +13109,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12710,8 +13148,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12743,8 +13187,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12776,8 +13226,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12809,8 +13265,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12842,8 +13304,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12875,8 +13343,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12908,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12941,8 +13421,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12974,8 +13460,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13007,8 +13499,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13040,8 +13538,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13073,8 +13577,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13106,8 +13616,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13139,8 +13655,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13172,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13205,8 +13733,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13238,8 +13772,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13271,8 +13811,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13304,8 +13850,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13337,8 +13889,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13370,8 +13928,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13403,8 +13967,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13436,8 +14006,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13469,8 +14045,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13502,8 +14084,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13535,8 +14123,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13568,8 +14162,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13601,8 +14201,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13634,8 +14240,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13667,8 +14279,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13700,8 +14318,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13733,8 +14357,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13766,8 +14396,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13799,8 +14435,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13832,8 +14474,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13865,8 +14513,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13898,8 +14552,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13931,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13964,8 +14630,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13997,8 +14669,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14030,8 +14708,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14063,8 +14747,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14096,8 +14786,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14129,8 +14825,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14162,8 +14864,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14195,8 +14903,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14228,8 +14942,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14261,8 +14981,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14294,8 +15020,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14327,8 +15059,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14360,8 +15098,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14393,8 +15137,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14426,8 +15176,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14459,8 +15215,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14492,8 +15254,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14525,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14558,8 +15332,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14591,8 +15371,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14624,8 +15410,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14657,8 +15449,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14690,8 +15488,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14723,8 +15527,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14756,8 +15566,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14789,8 +15605,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14822,8 +15644,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14855,8 +15683,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14888,8 +15722,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14921,8 +15761,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14954,8 +15800,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14987,8 +15839,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15020,8 +15878,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15053,8 +15917,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15086,8 +15956,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15119,8 +15995,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15152,8 +16034,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15185,8 +16073,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15218,8 +16112,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15251,8 +16151,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15284,8 +16190,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15317,8 +16229,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15350,8 +16268,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15383,8 +16307,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15416,8 +16346,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15449,8 +16385,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15482,8 +16424,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15515,8 +16463,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15548,8 +16502,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15581,8 +16541,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15614,8 +16580,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15647,8 +16619,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15680,8 +16658,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15713,8 +16697,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15746,8 +16736,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15779,8 +16775,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15812,8 +16814,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15845,8 +16853,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15878,8 +16892,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15911,8 +16931,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15944,8 +16970,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15977,8 +17009,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16010,8 +17048,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16043,8 +17087,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16076,8 +17126,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16109,8 +17165,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16142,8 +17204,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16175,8 +17243,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16208,8 +17282,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16241,8 +17321,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16274,8 +17360,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16307,8 +17399,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16340,8 +17438,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16373,8 +17477,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16406,8 +17516,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16439,8 +17555,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16472,8 +17594,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16505,8 +17633,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16538,8 +17672,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16571,8 +17711,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16604,8 +17750,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16637,8 +17789,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16670,8 +17828,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16703,8 +17867,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16736,8 +17906,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16769,8 +17945,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16802,8 +17984,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16835,8 +18023,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16868,8 +18062,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16901,8 +18101,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16934,8 +18140,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16967,8 +18179,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17000,8 +18218,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17033,8 +18257,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17066,8 +18296,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17099,8 +18335,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17132,8 +18374,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17165,8 +18413,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17198,8 +18452,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17231,8 +18491,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17264,8 +18530,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17297,8 +18569,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17330,8 +18608,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17363,8 +18647,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17396,8 +18686,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17429,8 +18725,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17462,8 +18764,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17495,8 +18803,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17528,8 +18842,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17561,8 +18881,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17594,8 +18920,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17627,8 +18959,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17660,8 +18998,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17693,8 +19037,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17726,8 +19076,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17759,8 +19115,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17792,8 +19154,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17825,8 +19193,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17858,8 +19232,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17891,8 +19271,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17924,8 +19310,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17957,8 +19349,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17990,8 +19388,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18023,8 +19427,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18056,8 +19466,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18089,8 +19505,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18122,8 +19544,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18155,8 +19583,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18188,8 +19622,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18221,8 +19661,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18254,8 +19700,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18287,8 +19739,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18320,8 +19778,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18353,8 +19817,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18386,8 +19856,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18419,8 +19895,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18452,8 +19934,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18485,8 +19973,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18518,8 +20012,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18551,8 +20051,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18584,8 +20090,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18617,8 +20129,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18650,8 +20168,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18683,8 +20207,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18716,8 +20246,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18749,8 +20285,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18782,8 +20324,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18815,8 +20363,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18848,8 +20402,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18881,8 +20441,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18914,8 +20480,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18947,8 +20519,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18980,8 +20558,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19013,8 +20597,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19046,8 +20636,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19079,8 +20675,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19112,8 +20714,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19145,8 +20753,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19178,8 +20792,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19211,8 +20831,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19244,8 +20870,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19277,8 +20909,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19310,8 +20948,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19343,8 +20987,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19376,8 +21026,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19409,8 +21065,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19442,8 +21104,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19475,8 +21143,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19508,8 +21182,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19541,8 +21221,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19574,8 +21260,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19607,8 +21299,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19640,8 +21338,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19673,8 +21377,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19706,8 +21416,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19739,8 +21455,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19772,8 +21494,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19805,8 +21533,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19838,8 +21572,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19871,8 +21611,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19904,8 +21650,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19937,8 +21689,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19970,8 +21728,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20003,8 +21767,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20036,8 +21806,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20069,8 +21845,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20102,8 +21884,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20135,8 +21923,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20168,8 +21962,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20201,8 +22001,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20234,8 +22040,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20267,8 +22079,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20300,8 +22118,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20333,8 +22157,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20366,8 +22196,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20399,8 +22235,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20432,8 +22274,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20462,11 +22310,17 @@
         <v>60109.48915393002</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20495,11 +22349,17 @@
         <v>57749.23558145002</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20528,11 +22388,17 @@
         <v>45446.92005865002</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20561,11 +22427,17 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20594,11 +22466,17 @@
         <v>43415.99205865002</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20627,11 +22505,17 @@
         <v>43089.71355865002</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20660,11 +22544,17 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20693,11 +22583,17 @@
         <v>43677.31875865002</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20726,11 +22622,17 @@
         <v>41850.50675865002</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20759,11 +22661,17 @@
         <v>43304.87025865002</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20792,11 +22700,17 @@
         <v>46323.87835865002</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20825,11 +22739,17 @@
         <v>43619.19415865002</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20861,8 +22781,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20891,11 +22817,17 @@
         <v>42151.90215865002</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20924,11 +22856,17 @@
         <v>45734.20595865002</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20957,11 +22895,17 @@
         <v>53709.17145865002</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20990,11 +22934,17 @@
         <v>62663.63245865001</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21026,8 +22976,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21056,15 +23012,23 @@
         <v>54096.50255865001</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>2037</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
+        <v>1.153566519391262</v>
+      </c>
+      <c r="M591" t="n">
+        <v>1.031449631449632</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -21089,7 +23053,7 @@
         <v>32466.80076788001</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21122,7 +23086,7 @@
         <v>36852.30919293001</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21155,7 +23119,7 @@
         <v>48039.97512743001</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21188,7 +23152,7 @@
         <v>35527.22790416001</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21221,7 +23185,7 @@
         <v>26252.17530416001</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21254,7 +23218,7 @@
         <v>17247.31780416001</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21287,7 +23251,7 @@
         <v>13660.71540416001</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21320,7 +23284,7 @@
         <v>15784.71040416001</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21353,7 +23317,7 @@
         <v>10850.72820416001</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21386,7 +23350,7 @@
         <v>8105.93540416001</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21419,7 +23383,7 @@
         <v>1954.03460416001</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21452,7 +23416,7 @@
         <v>-2610.02639583999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21485,7 +23449,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21518,7 +23482,7 @@
         <v>-11083.76079583999</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21551,7 +23515,7 @@
         <v>-11024.46453005999</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21617,7 +23581,7 @@
         <v>-8151.351020879989</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21650,7 +23614,7 @@
         <v>-10574.25242087999</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21683,7 +23647,7 @@
         <v>-14143.67142087999</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21716,7 +23680,7 @@
         <v>-16980.76682087999</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21749,7 +23713,7 @@
         <v>-24933.83292087999</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21782,7 +23746,7 @@
         <v>-34811.60252087998</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21815,7 +23779,7 @@
         <v>-35067.77422087998</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22046,7 +24010,7 @@
         <v>-33916.38252087998</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22079,7 +24043,7 @@
         <v>-27202.75252087998</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22277,7 +24241,7 @@
         <v>-16002.46054592998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22310,7 +24274,7 @@
         <v>-15765.84534592998</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23234,7 +25198,7 @@
         <v>-18869.39581347999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23333,7 +25297,7 @@
         <v>-28938.35919121999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
